--- a/Reports/Project-Report/tables.xlsx
+++ b/Reports/Project-Report/tables.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit Sharma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Kanpur\Sem 1\Program Analysis_639A\Project\new_project\reinforcedlearning-debloater\Reports\Project-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E48A29-892E-4179-851E-7E1CF9477A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF52D3-FE8B-4667-9138-658E46D24CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
     <sheet name="occam.aggressive" sheetId="2" r:id="rId2"/>
     <sheet name="occam.none" sheetId="3" r:id="rId3"/>
     <sheet name="occam.nonrec-aggressive" sheetId="4" r:id="rId4"/>
@@ -32,31 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Aggressive OCCAM</t>
-  </si>
-  <si>
-    <t>Non Recursive Aggressive OCCAM</t>
-  </si>
-  <si>
-    <t>Bounded OCCAM</t>
-  </si>
-  <si>
-    <t>HF DeepOCCAM</t>
-  </si>
-  <si>
-    <t>Modifie TRIMMER</t>
-  </si>
-  <si>
-    <t>None OCCAM</t>
-  </si>
-  <si>
-    <t>Only Once OCCAM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="38">
   <si>
     <t>Libraries</t>
   </si>
@@ -128,13 +104,55 @@
   </si>
   <si>
     <t>mkdir-5.2.1</t>
+  </si>
+  <si>
+    <t>bzip</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Aggressive</t>
+  </si>
+  <si>
+    <t>external calls</t>
+  </si>
+  <si>
+    <t>Machine  Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Rec Aggressive </t>
+  </si>
+  <si>
+    <t>Only once</t>
+  </si>
+  <si>
+    <t>Libraries/Tools</t>
+  </si>
+  <si>
+    <t>airtun_ng-airtun-ng</t>
+  </si>
+  <si>
+    <t>bzip2</t>
+  </si>
+  <si>
+    <t>curl</t>
+  </si>
+  <si>
+    <t>httpd</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>nettest_bsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +181,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -260,26 +285,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -289,9 +382,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,56 +689,1132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA57FFC6-C8A6-4955-A3DD-2D718D2A808D}">
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>451</v>
+      </c>
+      <c r="C4" s="3">
+        <v>445</v>
+      </c>
+      <c r="D4" s="3">
+        <v>450</v>
+      </c>
+      <c r="E4" s="3">
+        <v>450</v>
+      </c>
+      <c r="F4" s="3">
+        <v>450</v>
+      </c>
+      <c r="G4" s="22">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2521</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2481</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2523</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2523</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2523</v>
+      </c>
+      <c r="G5" s="22">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26">
+        <v>328</v>
+      </c>
+      <c r="C6" s="26">
+        <v>327</v>
+      </c>
+      <c r="D6" s="26">
+        <v>330</v>
+      </c>
+      <c r="E6" s="26">
+        <v>330</v>
+      </c>
+      <c r="F6" s="26">
+        <v>330</v>
+      </c>
+      <c r="G6" s="27">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="26">
+        <v>322</v>
+      </c>
+      <c r="C7" s="26">
+        <v>321</v>
+      </c>
+      <c r="D7" s="26">
+        <v>326</v>
+      </c>
+      <c r="E7" s="26">
+        <v>326</v>
+      </c>
+      <c r="F7" s="26">
+        <v>326</v>
+      </c>
+      <c r="G7" s="27">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B8" s="24">
+        <v>671</v>
+      </c>
+      <c r="C8" s="24">
+        <v>658</v>
+      </c>
+      <c r="D8" s="24">
+        <v>672</v>
+      </c>
+      <c r="E8" s="24">
+        <v>672</v>
+      </c>
+      <c r="F8" s="24">
+        <v>672</v>
+      </c>
+      <c r="G8" s="25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B14" s="3">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3">
+        <v>54</v>
+      </c>
+      <c r="F14" s="3">
+        <v>54</v>
+      </c>
+      <c r="G14" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B15" s="3">
+        <v>2776</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2538</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3137</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3137</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3137</v>
+      </c>
+      <c r="G15" s="22">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="B16" s="3">
+        <v>24412</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20540</v>
+      </c>
+      <c r="D16" s="3">
+        <v>23769</v>
+      </c>
+      <c r="E16" s="3">
+        <v>23769</v>
+      </c>
+      <c r="F16" s="3">
+        <v>23769</v>
+      </c>
+      <c r="G16" s="22">
+        <v>20540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
+      <c r="B17" s="26">
+        <v>4714</v>
+      </c>
+      <c r="C17" s="26">
+        <v>621</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1011</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1011</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1011</v>
+      </c>
+      <c r="G17" s="27">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="26">
+        <v>4575</v>
+      </c>
+      <c r="C18" s="26">
+        <v>515</v>
+      </c>
+      <c r="D18" s="26">
+        <v>835</v>
+      </c>
+      <c r="E18" s="26">
+        <v>835</v>
+      </c>
+      <c r="F18" s="26">
+        <v>835</v>
+      </c>
+      <c r="G18" s="27">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="24">
+        <v>5144</v>
+      </c>
+      <c r="C19" s="24">
+        <v>5209</v>
+      </c>
+      <c r="D19" s="24">
+        <v>5989</v>
+      </c>
+      <c r="E19" s="24">
+        <v>5989</v>
+      </c>
+      <c r="F19" s="24">
+        <v>5989</v>
+      </c>
+      <c r="G19" s="25">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>124</v>
+      </c>
+      <c r="C25" s="3">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>62</v>
+      </c>
+      <c r="F25" s="26">
+        <v>52</v>
+      </c>
+      <c r="G25" s="22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2823</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2764</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>4375</v>
+      </c>
+      <c r="F26" s="26">
+        <v>3369</v>
+      </c>
+      <c r="G26" s="22">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>11870</v>
+      </c>
+      <c r="C27" s="3">
+        <v>11777</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>18106</v>
+      </c>
+      <c r="F27" s="26">
+        <v>14512</v>
+      </c>
+      <c r="G27" s="22">
+        <v>11777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="26">
+        <v>1786</v>
+      </c>
+      <c r="C28" s="26">
+        <v>1696</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="26">
+        <v>2500</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2005</v>
+      </c>
+      <c r="G28" s="27">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1234</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1250</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="26">
+        <v>1911</v>
+      </c>
+      <c r="F29" s="26">
+        <v>1519</v>
+      </c>
+      <c r="G29" s="27">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="24">
+        <v>2503</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2511</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24">
+        <v>3858</v>
+      </c>
+      <c r="F30" s="24">
+        <v>3048</v>
+      </c>
+      <c r="G30" s="25">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1083</v>
+      </c>
+      <c r="C36" s="3">
+        <v>477</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <v>444</v>
+      </c>
+      <c r="G36" s="22">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3">
+        <v>12943</v>
+      </c>
+      <c r="C37" s="3">
+        <v>11615</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <v>12999</v>
+      </c>
+      <c r="G37" s="22">
+        <v>11401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3">
+        <v>83238</v>
+      </c>
+      <c r="C38" s="3">
+        <v>62428</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>70773</v>
+      </c>
+      <c r="G38" s="22">
+        <v>61667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="26">
+        <v>22603</v>
+      </c>
+      <c r="C39" s="26">
+        <v>5279</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="26">
+        <v>5932</v>
+      </c>
+      <c r="G39" s="22">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="26">
+        <v>20712</v>
+      </c>
+      <c r="C40" s="26">
+        <v>4152</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="26">
+        <v>4787</v>
+      </c>
+      <c r="G40" s="22">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="24">
+        <v>17071</v>
+      </c>
+      <c r="C41" s="24">
+        <v>16334</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24">
+        <v>18347</v>
+      </c>
+      <c r="G41" s="25">
+        <v>16188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3">
+        <v>40</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>44</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44</v>
+      </c>
+      <c r="G47" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1458</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1845</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>1891</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1891</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7442</v>
+      </c>
+      <c r="C49" s="3">
+        <v>8957</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>9286</v>
+      </c>
+      <c r="F49" s="3">
+        <v>9286</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="26">
+        <v>1051</v>
+      </c>
+      <c r="C50" s="26">
+        <v>1257</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="26">
+        <v>1290</v>
+      </c>
+      <c r="F50" s="26">
+        <v>1290</v>
+      </c>
+      <c r="G50" s="26">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="26">
+        <v>845</v>
+      </c>
+      <c r="C51" s="26">
+        <v>1167</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="26">
+        <v>1200</v>
+      </c>
+      <c r="F51" s="26">
+        <v>1200</v>
+      </c>
+      <c r="G51" s="26">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="24">
+        <v>1944</v>
+      </c>
+      <c r="C52" s="24">
+        <v>2222</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24">
+        <v>2344</v>
+      </c>
+      <c r="F52" s="24">
+        <v>2344</v>
+      </c>
+      <c r="G52" s="24">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3">
+        <v>33</v>
+      </c>
+      <c r="C58" s="3">
+        <v>23</v>
+      </c>
+      <c r="D58" s="3">
+        <v>24</v>
+      </c>
+      <c r="E58" s="3">
+        <v>24</v>
+      </c>
+      <c r="F58" s="3">
+        <v>24</v>
+      </c>
+      <c r="G58" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3">
+        <v>979</v>
+      </c>
+      <c r="C59" s="3">
+        <v>553</v>
+      </c>
+      <c r="D59" s="3">
+        <v>573</v>
+      </c>
+      <c r="E59" s="3">
+        <v>573</v>
+      </c>
+      <c r="F59" s="3">
+        <v>573</v>
+      </c>
+      <c r="G59" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3">
+        <v>6301</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3045</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3140</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3140</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3140</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="26">
+        <v>862</v>
+      </c>
+      <c r="C61" s="26">
+        <v>402</v>
+      </c>
+      <c r="D61" s="26">
+        <v>412</v>
+      </c>
+      <c r="E61" s="26">
+        <v>412</v>
+      </c>
+      <c r="F61" s="26">
+        <v>412</v>
+      </c>
+      <c r="G61" s="26">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="26">
+        <v>794</v>
+      </c>
+      <c r="C62" s="26">
+        <v>369</v>
+      </c>
+      <c r="D62" s="26">
+        <v>377</v>
+      </c>
+      <c r="E62" s="26">
+        <v>377</v>
+      </c>
+      <c r="F62" s="26">
+        <v>377</v>
+      </c>
+      <c r="G62" s="26">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="24">
+        <v>2859</v>
+      </c>
+      <c r="C63" s="24">
+        <v>1350</v>
+      </c>
+      <c r="D63" s="24">
+        <v>1396</v>
+      </c>
+      <c r="E63" s="24">
+        <v>1396</v>
+      </c>
+      <c r="F63" s="24">
+        <v>1396</v>
+      </c>
+      <c r="G63" s="24">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A56:G56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -628,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E814C733-158F-4F11-B071-29B3D79BB49E}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -644,66 +1838,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -737,8 +1931,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -772,8 +1966,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -807,8 +2001,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>90</v>
@@ -843,12 +2037,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -859,7 +2053,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K7"/>
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,66 +2063,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -962,8 +2156,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -997,8 +2191,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>689</v>
@@ -1032,8 +2226,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>371</v>
@@ -1067,8 +2261,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1083</v>
@@ -1103,12 +2297,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1119,7 +2313,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,66 +2323,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B3">
         <v>61</v>
@@ -1222,8 +2416,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>689</v>
@@ -1257,8 +2451,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>371</v>
@@ -1292,8 +2486,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1083</v>
@@ -1328,12 +2522,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1354,66 +2548,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -1447,8 +2641,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>689</v>
@@ -1482,8 +2676,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>371</v>
@@ -1517,8 +2711,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1083</v>
@@ -1553,12 +2747,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1570,7 +2764,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,66 +2775,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -1674,8 +2868,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>39</v>
@@ -1709,8 +2903,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -1744,8 +2938,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
         <v>90</v>
@@ -1780,12 +2974,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1796,7 +2990,7 @@
   <dimension ref="B4:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,224 +3001,224 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="J4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>15</v>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
         <v>646</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>313</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3">
         <v>408</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
         <v>97</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>55</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3">
         <v>39</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
         <v>6728</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>1562</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3">
         <v>5214</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <v>877</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
         <v>7374</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>1930</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="14">
+      <c r="J9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="10">
         <v>5626</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="11">
         <v>1046</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="J14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>15</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
         <v>210</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="8">
         <v>84</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3">
         <v>485</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="8">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>5</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3">
         <v>44</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
         <v>2282</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <v>176</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="J18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3">
         <v>4476</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="8">
         <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10">
         <v>2492</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>260</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="14">
+      <c r="J19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="10">
         <v>4965</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="11">
         <v>301</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="4"/>
+      <c r="J20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Reports/Project-Report/tables.xlsx
+++ b/Reports/Project-Report/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT Kanpur\Sem 1\Program Analysis_639A\Project\new_project\reinforcedlearning-debloater\Reports\Project-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF52D3-FE8B-4667-9138-658E46D24CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C25C465-FA26-44D1-BD68-18DDD11B9B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="45">
   <si>
     <t>Libraries</t>
   </si>
@@ -146,6 +146,27 @@
   </si>
   <si>
     <t>nettest_bsd</t>
+  </si>
+  <si>
+    <t>libcurl</t>
+  </si>
+  <si>
+    <t>net_uuid</t>
+  </si>
+  <si>
+    <t>libevent</t>
+  </si>
+  <si>
+    <t>libpcre</t>
+  </si>
+  <si>
+    <t>netsh</t>
+  </si>
+  <si>
+    <t>nettest_omni</t>
+  </si>
+  <si>
+    <t>netlib</t>
   </si>
 </sst>
 </file>
@@ -382,24 +403,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -410,6 +413,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA57FFC6-C8A6-4955-A3DD-2D718D2A808D}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,41 +729,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -760,12 +781,12 @@
       <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -783,12 +804,12 @@
       <c r="F4" s="3">
         <v>450</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="16">
         <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -806,117 +827,117 @@
       <c r="F5" s="3">
         <v>2523</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="16">
         <v>2481</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="20">
         <v>328</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="20">
         <v>327</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="20">
         <v>330</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="20">
         <v>330</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="20">
         <v>330</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="21">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="20">
         <v>322</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="20">
         <v>321</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="20">
         <v>326</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="20">
         <v>326</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="20">
         <v>326</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="21">
         <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="18">
         <v>671</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="18">
         <v>658</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="18">
         <v>672</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>672</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <v>672</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="19">
         <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3">
@@ -934,12 +955,12 @@
       <c r="F14" s="3">
         <v>54</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="16">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3">
@@ -957,12 +978,12 @@
       <c r="F15" s="3">
         <v>3137</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="16">
         <v>2538</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3">
@@ -980,117 +1001,117 @@
       <c r="F16" s="3">
         <v>23769</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="16">
         <v>20540</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="20">
         <v>4714</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="20">
         <v>621</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="20">
         <v>1011</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="20">
         <v>1011</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="20">
         <v>1011</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="21">
         <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="20">
         <v>4575</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="20">
         <v>515</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="20">
         <v>835</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="20">
         <v>835</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="20">
         <v>835</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="21">
         <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="18">
         <v>5144</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="18">
         <v>5209</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="18">
         <v>5989</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="18">
         <v>5989</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="18">
         <v>5989</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="19">
         <v>5209</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="3">
@@ -1103,15 +1124,15 @@
       <c r="E25" s="3">
         <v>62</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="20">
         <v>52</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="16">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3">
@@ -1124,15 +1145,15 @@
       <c r="E26" s="3">
         <v>4375</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="20">
         <v>3369</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="16">
         <v>2764</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3">
@@ -1145,114 +1166,114 @@
       <c r="E27" s="3">
         <v>18106</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="20">
         <v>14512</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="16">
         <v>11777</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="20">
         <v>1786</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="20">
         <v>1696</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="26">
+      <c r="E28" s="20">
         <v>2500</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="20">
         <v>2005</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="21">
         <v>1696</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="20">
         <v>1234</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="20">
         <v>1250</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="26">
+      <c r="E29" s="20">
         <v>1911</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="20">
         <v>1519</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="21">
         <v>1250</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="18">
         <v>2503</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="18">
         <v>2511</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
         <v>3858</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="18">
         <v>3048</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="19">
         <v>2511</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="3">
@@ -1266,12 +1287,12 @@
       <c r="F36" s="3">
         <v>444</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="16">
         <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="3">
@@ -1285,12 +1306,12 @@
       <c r="F37" s="3">
         <v>12999</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="16">
         <v>11401</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="3">
@@ -1304,105 +1325,105 @@
       <c r="F38" s="3">
         <v>70773</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="16">
         <v>61667</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="20">
         <v>22603</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="20">
         <v>5279</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="26">
+      <c r="F39" s="20">
         <v>5932</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="16">
         <v>5175</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="20">
         <v>20712</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="20">
         <v>4152</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="26">
+      <c r="F40" s="20">
         <v>4787</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="16">
         <v>4116</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="18">
         <v>17071</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="18">
         <v>16334</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18">
         <v>18347</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="19">
         <v>16188</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="3">
@@ -1418,12 +1439,12 @@
       <c r="F47" s="3">
         <v>44</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="16">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="3">
@@ -1439,12 +1460,12 @@
       <c r="F48" s="3">
         <v>1891</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="16">
         <v>1845</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="3">
@@ -1460,111 +1481,111 @@
       <c r="F49" s="3">
         <v>9286</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="16">
         <v>8957</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="20">
         <v>1051</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="20">
         <v>1257</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="26">
+      <c r="E50" s="20">
         <v>1290</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="20">
         <v>1290</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="21">
         <v>1257</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="20">
         <v>845</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="20">
         <v>1167</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="26">
+      <c r="E51" s="20">
         <v>1200</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="20">
         <v>1200</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="21">
         <v>1167</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="18">
         <v>1944</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="18">
         <v>2222</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24">
+      <c r="D52" s="18"/>
+      <c r="E52" s="18">
         <v>2344</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="18">
         <v>2344</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="19">
         <v>2222</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="3">
@@ -1582,12 +1603,12 @@
       <c r="F58" s="3">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="3">
@@ -1605,12 +1626,12 @@
       <c r="F59" s="3">
         <v>573</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="16">
         <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="3">
@@ -1628,184 +1649,1354 @@
       <c r="F60" s="3">
         <v>3140</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="16">
         <v>3140</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="20">
         <v>862</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="20">
         <v>402</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="20">
         <v>412</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="20">
         <v>412</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="20">
         <v>412</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="21">
         <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="20">
         <v>794</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="20">
         <v>369</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="20">
         <v>377</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="20">
         <v>377</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="20">
         <v>377</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="21">
         <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="18">
         <v>2859</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="18">
         <v>1350</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="18">
         <v>1396</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="18">
         <v>1396</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="18">
         <v>1396</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="19">
         <v>1396</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3">
+        <v>857</v>
+      </c>
+      <c r="C69" s="3">
+        <v>606</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
+        <v>698</v>
+      </c>
+      <c r="F69" s="20">
+        <v>693</v>
+      </c>
+      <c r="G69" s="16">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3">
+        <v>13315</v>
+      </c>
+      <c r="C70" s="3">
+        <v>13111</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
+        <v>19754</v>
+      </c>
+      <c r="F70" s="20">
+        <v>18844</v>
+      </c>
+      <c r="G70" s="16">
+        <v>13048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>65710</v>
+      </c>
+      <c r="C71" s="3">
+        <v>65019</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
+        <v>101037</v>
+      </c>
+      <c r="F71" s="20">
+        <v>96333</v>
+      </c>
+      <c r="G71" s="16">
+        <v>64908</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="20">
+        <v>6056</v>
+      </c>
+      <c r="C72" s="20">
+        <v>6297</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="20">
+        <v>9368</v>
+      </c>
+      <c r="F72" s="20">
+        <v>9189</v>
+      </c>
+      <c r="G72" s="16">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="20">
+        <v>2459</v>
+      </c>
+      <c r="C73" s="20">
+        <v>3517</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="20">
+        <v>5539</v>
+      </c>
+      <c r="F73" s="20">
+        <v>5432</v>
+      </c>
+      <c r="G73" s="16">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="18">
+        <v>15779</v>
+      </c>
+      <c r="C74" s="18">
+        <v>14753</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18">
+        <v>21586</v>
+      </c>
+      <c r="F74" s="18">
+        <v>20681</v>
+      </c>
+      <c r="G74" s="19">
+        <v>14828</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="3">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3">
+        <v>9</v>
+      </c>
+      <c r="G80" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="3">
+        <v>38</v>
+      </c>
+      <c r="C81" s="3">
+        <v>34</v>
+      </c>
+      <c r="D81" s="3">
+        <v>34</v>
+      </c>
+      <c r="E81" s="3">
+        <v>34</v>
+      </c>
+      <c r="F81" s="3">
+        <v>34</v>
+      </c>
+      <c r="G81" s="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3">
+        <v>349</v>
+      </c>
+      <c r="C82" s="3">
+        <v>304</v>
+      </c>
+      <c r="D82" s="3">
+        <v>304</v>
+      </c>
+      <c r="E82" s="3">
+        <v>304</v>
+      </c>
+      <c r="F82" s="3">
+        <v>304</v>
+      </c>
+      <c r="G82" s="16">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="20">
+        <v>23</v>
+      </c>
+      <c r="C83" s="20">
+        <v>20</v>
+      </c>
+      <c r="D83" s="20">
+        <v>20</v>
+      </c>
+      <c r="E83" s="20">
+        <v>20</v>
+      </c>
+      <c r="F83" s="20">
+        <v>20</v>
+      </c>
+      <c r="G83" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="20">
+        <v>12</v>
+      </c>
+      <c r="C84" s="20">
+        <v>9</v>
+      </c>
+      <c r="D84" s="20">
+        <v>9</v>
+      </c>
+      <c r="E84" s="20">
+        <v>9</v>
+      </c>
+      <c r="F84" s="20">
+        <v>9</v>
+      </c>
+      <c r="G84" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="18">
+        <v>141</v>
+      </c>
+      <c r="C85" s="18">
+        <v>128</v>
+      </c>
+      <c r="D85" s="18">
+        <v>128</v>
+      </c>
+      <c r="E85" s="18">
+        <v>128</v>
+      </c>
+      <c r="F85" s="18">
+        <v>128</v>
+      </c>
+      <c r="G85" s="19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="3">
+        <v>681</v>
+      </c>
+      <c r="C91" s="3">
+        <v>49</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3">
+        <v>50</v>
+      </c>
+      <c r="F91" s="20">
+        <v>50</v>
+      </c>
+      <c r="G91" s="16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="3">
+        <v>7990</v>
+      </c>
+      <c r="C92" s="3">
+        <v>880</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
+        <v>966</v>
+      </c>
+      <c r="F92" s="20">
+        <v>863</v>
+      </c>
+      <c r="G92" s="16">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3">
+        <v>48498</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5986</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3">
+        <v>7004</v>
+      </c>
+      <c r="F93" s="20">
+        <v>5943</v>
+      </c>
+      <c r="G93" s="16">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="20">
+        <v>13025</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1512</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="20">
+        <v>1910</v>
+      </c>
+      <c r="F94" s="20">
+        <v>1582</v>
+      </c>
+      <c r="G94" s="16">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="20">
+        <v>10619</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1374</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="20">
+        <v>1767</v>
+      </c>
+      <c r="F95" s="20">
+        <v>1447</v>
+      </c>
+      <c r="G95" s="16">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="18">
+        <v>8540</v>
+      </c>
+      <c r="C96" s="18">
+        <v>1191</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18">
+        <v>1361</v>
+      </c>
+      <c r="F96" s="18">
+        <v>1154</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="24"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="3">
+        <v>46</v>
+      </c>
+      <c r="C102" s="3">
+        <v>16</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3">
+        <v>17</v>
+      </c>
+      <c r="G102" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="3">
+        <v>3887</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2966</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3">
+        <v>3123</v>
+      </c>
+      <c r="G103" s="16">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="3">
+        <v>28189</v>
+      </c>
+      <c r="C104" s="3">
+        <v>16938</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3">
+        <v>17631</v>
+      </c>
+      <c r="G104" s="16">
+        <v>16967</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="20">
+        <v>8065</v>
+      </c>
+      <c r="C105" s="20">
+        <v>279</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="20">
+        <v>278</v>
+      </c>
+      <c r="G105" s="16">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="20">
+        <v>7912</v>
+      </c>
+      <c r="C106" s="20">
+        <v>173</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="20">
+        <v>173</v>
+      </c>
+      <c r="G106" s="16">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="18">
+        <v>4371</v>
+      </c>
+      <c r="C107" s="18">
+        <v>4108</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18">
+        <v>4157</v>
+      </c>
+      <c r="G107" s="19">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="24"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="3">
+        <v>12</v>
+      </c>
+      <c r="C113" s="3">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3">
+        <v>13</v>
+      </c>
+      <c r="E113" s="3">
+        <v>13</v>
+      </c>
+      <c r="F113" s="3">
+        <v>13</v>
+      </c>
+      <c r="G113" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="3">
+        <v>313</v>
+      </c>
+      <c r="C114" s="3">
+        <v>312</v>
+      </c>
+      <c r="D114" s="3">
+        <v>332</v>
+      </c>
+      <c r="E114" s="3">
+        <v>332</v>
+      </c>
+      <c r="F114" s="3">
+        <v>332</v>
+      </c>
+      <c r="G114" s="16">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1319</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1315</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1417</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1417</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1417</v>
+      </c>
+      <c r="G115" s="16">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="20">
+        <v>195</v>
+      </c>
+      <c r="C116" s="20">
+        <v>194</v>
+      </c>
+      <c r="D116" s="20">
+        <v>196</v>
+      </c>
+      <c r="E116" s="20">
+        <v>196</v>
+      </c>
+      <c r="F116" s="20">
+        <v>196</v>
+      </c>
+      <c r="G116" s="21">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" s="20">
+        <v>172</v>
+      </c>
+      <c r="C117" s="20">
+        <v>171</v>
+      </c>
+      <c r="D117" s="20">
+        <v>173</v>
+      </c>
+      <c r="E117" s="20">
+        <v>173</v>
+      </c>
+      <c r="F117" s="20">
+        <v>173</v>
+      </c>
+      <c r="G117" s="21">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="18">
+        <v>433</v>
+      </c>
+      <c r="C118" s="18">
+        <v>431</v>
+      </c>
+      <c r="D118" s="18">
+        <v>481</v>
+      </c>
+      <c r="E118" s="18">
+        <v>481</v>
+      </c>
+      <c r="F118" s="18">
+        <v>481</v>
+      </c>
+      <c r="G118" s="19">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="24"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="3">
+        <v>59</v>
+      </c>
+      <c r="C124" s="3">
+        <v>53</v>
+      </c>
+      <c r="D124" s="3">
+        <v>53</v>
+      </c>
+      <c r="E124" s="3">
+        <v>53</v>
+      </c>
+      <c r="F124" s="3">
+        <v>53</v>
+      </c>
+      <c r="G124" s="16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1662</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1662</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1662</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1662</v>
+      </c>
+      <c r="G125" s="16">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="3">
+        <v>9838</v>
+      </c>
+      <c r="C126" s="3">
+        <v>8228</v>
+      </c>
+      <c r="D126" s="3">
+        <v>8228</v>
+      </c>
+      <c r="E126" s="3">
+        <v>8228</v>
+      </c>
+      <c r="F126" s="3">
+        <v>8228</v>
+      </c>
+      <c r="G126" s="16">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="20">
+        <v>923</v>
+      </c>
+      <c r="C127" s="20">
+        <v>788</v>
+      </c>
+      <c r="D127" s="20">
+        <v>788</v>
+      </c>
+      <c r="E127" s="20">
+        <v>788</v>
+      </c>
+      <c r="F127" s="20">
+        <v>788</v>
+      </c>
+      <c r="G127" s="21">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="20">
+        <v>649</v>
+      </c>
+      <c r="C128" s="20">
+        <v>528</v>
+      </c>
+      <c r="D128" s="20">
+        <v>528</v>
+      </c>
+      <c r="E128" s="20">
+        <v>528</v>
+      </c>
+      <c r="F128" s="20">
+        <v>528</v>
+      </c>
+      <c r="G128" s="21">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="18">
+        <v>4133</v>
+      </c>
+      <c r="C129" s="18">
+        <v>3347</v>
+      </c>
+      <c r="D129" s="18">
+        <v>3347</v>
+      </c>
+      <c r="E129" s="18">
+        <v>3347</v>
+      </c>
+      <c r="F129" s="18">
+        <v>3347</v>
+      </c>
+      <c r="G129" s="19">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="24"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="3">
+        <v>90</v>
+      </c>
+      <c r="C135" s="3">
+        <v>66</v>
+      </c>
+      <c r="D135" s="3">
+        <v>77</v>
+      </c>
+      <c r="E135" s="3">
+        <v>77</v>
+      </c>
+      <c r="F135" s="20">
+        <v>77</v>
+      </c>
+      <c r="G135" s="16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="3">
+        <v>750</v>
+      </c>
+      <c r="C136" s="3">
+        <v>586</v>
+      </c>
+      <c r="D136" s="3">
+        <v>671</v>
+      </c>
+      <c r="E136" s="3">
+        <v>671</v>
+      </c>
+      <c r="F136" s="20">
+        <v>671</v>
+      </c>
+      <c r="G136" s="16">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="3">
+        <v>4874</v>
+      </c>
+      <c r="C137" s="3">
+        <v>3950</v>
+      </c>
+      <c r="D137" s="3">
+        <v>4441</v>
+      </c>
+      <c r="E137" s="3">
+        <v>4441</v>
+      </c>
+      <c r="F137" s="20">
+        <v>4441</v>
+      </c>
+      <c r="G137" s="16">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="20">
+        <v>427</v>
+      </c>
+      <c r="C138" s="20">
+        <v>325</v>
+      </c>
+      <c r="D138" s="20">
+        <v>385</v>
+      </c>
+      <c r="E138" s="20">
+        <v>385</v>
+      </c>
+      <c r="F138" s="20">
+        <v>385</v>
+      </c>
+      <c r="G138" s="16">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" s="20">
+        <v>356</v>
+      </c>
+      <c r="C139" s="20">
+        <v>276</v>
+      </c>
+      <c r="D139" s="20">
+        <v>324</v>
+      </c>
+      <c r="E139" s="20">
+        <v>324</v>
+      </c>
+      <c r="F139" s="20">
+        <v>324</v>
+      </c>
+      <c r="G139" s="16">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="18">
+        <v>2160</v>
+      </c>
+      <c r="C140" s="18">
+        <v>1777</v>
+      </c>
+      <c r="D140" s="18">
+        <v>1991</v>
+      </c>
+      <c r="E140" s="18">
+        <v>1991</v>
+      </c>
+      <c r="F140" s="18">
+        <v>1991</v>
+      </c>
+      <c r="G140" s="19">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="24"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B145" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C145" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D145" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E145" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F145" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G145" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="16"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="16"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="16"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="16"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23" t="s">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="19"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:G12"/>
@@ -1813,8 +3004,16 @@
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A144:G144"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="A122:G122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1838,32 +3037,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2063,32 +3262,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2323,32 +3522,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2548,32 +3747,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2775,32 +3974,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3001,16 +4200,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="J4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -3110,16 +4309,16 @@
     </row>
     <row r="10" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="J14" s="14" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="J14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
